--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Angpt1</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angpt1</t>
-  </si>
-  <si>
-    <t>Tek</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07171233333333334</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H2">
-        <v>0.215137</v>
+        <v>33.155356</v>
       </c>
       <c r="I2">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="J2">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.69746666666666</v>
+        <v>43.28265566666667</v>
       </c>
       <c r="N2">
-        <v>134.0924</v>
+        <v>129.847967</v>
       </c>
       <c r="O2">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="P2">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="Q2">
-        <v>3.205359628755555</v>
+        <v>478.3506190845836</v>
       </c>
       <c r="R2">
-        <v>28.8482366588</v>
+        <v>4305.155571761252</v>
       </c>
       <c r="S2">
-        <v>0.003376308918570237</v>
+        <v>0.6016646037221132</v>
       </c>
       <c r="T2">
-        <v>0.003376308918570237</v>
+        <v>0.6016646037221132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07171233333333334</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H3">
-        <v>0.215137</v>
+        <v>33.155356</v>
       </c>
       <c r="I3">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="J3">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>55.897306</v>
       </c>
       <c r="O3">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="P3">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="Q3">
-        <v>1.336175413435778</v>
+        <v>205.9216755412151</v>
       </c>
       <c r="R3">
-        <v>12.025578720922</v>
+        <v>1853.295079870936</v>
       </c>
       <c r="S3">
-        <v>0.001407436758323735</v>
+        <v>0.2590062150424249</v>
       </c>
       <c r="T3">
-        <v>0.001407436758323735</v>
+        <v>0.2590062150424249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07171233333333334</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H4">
-        <v>0.215137</v>
+        <v>33.155356</v>
       </c>
       <c r="I4">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="J4">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.170755666666667</v>
+        <v>2.955125333333334</v>
       </c>
       <c r="N4">
-        <v>6.512267</v>
+        <v>8.865376000000001</v>
       </c>
       <c r="O4">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999943</v>
       </c>
       <c r="P4">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999944</v>
       </c>
       <c r="Q4">
-        <v>0.1556699539532223</v>
+        <v>32.65941081709511</v>
       </c>
       <c r="R4">
-        <v>1.401029585579</v>
+        <v>293.934697353856</v>
       </c>
       <c r="S4">
-        <v>0.0001639721949358103</v>
+        <v>0.04107867886670519</v>
       </c>
       <c r="T4">
-        <v>0.0001639721949358102</v>
+        <v>0.04107867886670519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.05178533333333</v>
+        <v>1.204152</v>
       </c>
       <c r="H5">
-        <v>33.155356</v>
+        <v>3.612456</v>
       </c>
       <c r="I5">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875665</v>
       </c>
       <c r="J5">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875667</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.69746666666666</v>
+        <v>43.28265566666667</v>
       </c>
       <c r="N5">
-        <v>134.0924</v>
+        <v>129.847967</v>
       </c>
       <c r="O5">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="P5">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="Q5">
-        <v>493.9868065438222</v>
+        <v>52.118896386328</v>
       </c>
       <c r="R5">
-        <v>4445.881258894399</v>
+        <v>469.070067476952</v>
       </c>
       <c r="S5">
-        <v>0.5203322727432808</v>
+        <v>0.06555462434798076</v>
       </c>
       <c r="T5">
-        <v>0.5203322727432808</v>
+        <v>0.06555462434798077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.05178533333333</v>
+        <v>1.204152</v>
       </c>
       <c r="H6">
-        <v>33.155356</v>
+        <v>3.612456</v>
       </c>
       <c r="I6">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875665</v>
       </c>
       <c r="J6">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875667</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>55.897306</v>
       </c>
       <c r="O6">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="P6">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="Q6">
-        <v>205.9216755412151</v>
+        <v>22.436284271504</v>
       </c>
       <c r="R6">
-        <v>1853.295079870936</v>
+        <v>201.926558443536</v>
       </c>
       <c r="S6">
-        <v>0.2169039578022813</v>
+        <v>0.02822013298748167</v>
       </c>
       <c r="T6">
-        <v>0.2169039578022813</v>
+        <v>0.02822013298748167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.05178533333333</v>
+        <v>1.204152</v>
       </c>
       <c r="H7">
-        <v>33.155356</v>
+        <v>3.612456</v>
       </c>
       <c r="I7">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875665</v>
       </c>
       <c r="J7">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875667</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.170755666666667</v>
+        <v>2.955125333333334</v>
       </c>
       <c r="N7">
-        <v>6.512267</v>
+        <v>8.865376000000001</v>
       </c>
       <c r="O7">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999943</v>
       </c>
       <c r="P7">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999944</v>
       </c>
       <c r="Q7">
-        <v>23.99072563911689</v>
+        <v>3.558420080384</v>
       </c>
       <c r="R7">
-        <v>215.916530752052</v>
+        <v>32.025780723456</v>
       </c>
       <c r="S7">
-        <v>0.02527020687839928</v>
+        <v>0.004475745033294239</v>
       </c>
       <c r="T7">
-        <v>0.02527020687839928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.370524666666667</v>
-      </c>
-      <c r="H8">
-        <v>10.111574</v>
-      </c>
-      <c r="I8">
-        <v>0.2325458447042087</v>
-      </c>
-      <c r="J8">
-        <v>0.2325458447042088</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>44.69746666666666</v>
-      </c>
-      <c r="N8">
-        <v>134.0924</v>
-      </c>
-      <c r="O8">
-        <v>0.6823972194925493</v>
-      </c>
-      <c r="P8">
-        <v>0.6823972194925493</v>
-      </c>
-      <c r="Q8">
-        <v>150.6539139375111</v>
-      </c>
-      <c r="R8">
-        <v>1355.8852254376</v>
-      </c>
-      <c r="S8">
-        <v>0.1586886378306982</v>
-      </c>
-      <c r="T8">
-        <v>0.1586886378306982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.370524666666667</v>
-      </c>
-      <c r="H9">
-        <v>10.111574</v>
-      </c>
-      <c r="I9">
-        <v>0.2325458447042087</v>
-      </c>
-      <c r="J9">
-        <v>0.2325458447042088</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>18.63243533333333</v>
-      </c>
-      <c r="N9">
-        <v>55.897306</v>
-      </c>
-      <c r="O9">
-        <v>0.2844618053784121</v>
-      </c>
-      <c r="P9">
-        <v>0.2844618053784121</v>
-      </c>
-      <c r="Q9">
-        <v>62.80108289107156</v>
-      </c>
-      <c r="R9">
-        <v>565.2097460196441</v>
-      </c>
-      <c r="S9">
-        <v>0.06615041081780708</v>
-      </c>
-      <c r="T9">
-        <v>0.06615041081780709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.370524666666667</v>
-      </c>
-      <c r="H10">
-        <v>10.111574</v>
-      </c>
-      <c r="I10">
-        <v>0.2325458447042087</v>
-      </c>
-      <c r="J10">
-        <v>0.2325458447042088</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.170755666666667</v>
-      </c>
-      <c r="N10">
-        <v>6.512267</v>
-      </c>
-      <c r="O10">
-        <v>0.03314097512903853</v>
-      </c>
-      <c r="P10">
-        <v>0.03314097512903853</v>
-      </c>
-      <c r="Q10">
-        <v>7.316585519806446</v>
-      </c>
-      <c r="R10">
-        <v>65.84926967825801</v>
-      </c>
-      <c r="S10">
-        <v>0.007706796055703439</v>
-      </c>
-      <c r="T10">
-        <v>0.007706796055703439</v>
+        <v>0.00447574503329424</v>
       </c>
     </row>
   </sheetData>
